--- a/fMRI Tasks/N-Of-Many/N-of-Many info/biopac_code_dict.xlsx
+++ b/fMRI Tasks/N-Of-Many/N-of-Many info/biopac_code_dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\canlab\WASABI_public\fMRI Tasks\N-Of-Many\N-of-Many info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA4B2B9-25B0-47CC-AFA0-C3B07CE0875C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD45007-ECB2-4577-A6D9-041678B6703F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="3285" windowWidth="18240" windowHeight="28440" xr2:uid="{75F97961-46F2-4545-9ED3-F0E6263E2077}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="24312" xr2:uid="{75F97961-46F2-4545-9ED3-F0E6263E2077}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="371">
   <si>
     <t>D8</t>
   </si>
@@ -1141,6 +1141,12 @@
   </si>
   <si>
     <t>nback negative feedback shown</t>
+  </si>
+  <si>
+    <t>expectancy_rating</t>
+  </si>
+  <si>
+    <t>expectancy rating (added for preregistration)</t>
   </si>
 </sst>
 </file>
@@ -1573,7 +1579,7 @@
   <dimension ref="A1:N268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4036,6 +4042,12 @@
       <c r="M52" s="2"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>370</v>
+      </c>
       <c r="C53" s="2">
         <v>51</v>
       </c>

--- a/fMRI Tasks/N-Of-Many/N-of-Many info/biopac_code_dict.xlsx
+++ b/fMRI Tasks/N-Of-Many/N-of-Many info/biopac_code_dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\canlab\WASABI_public\fMRI Tasks\N-Of-Many\N-of-Many info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD45007-ECB2-4577-A6D9-041678B6703F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301C09BD-6E2B-444B-8D37-74D8EB6D7F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="24312" xr2:uid="{75F97961-46F2-4545-9ED3-F0E6263E2077}"/>
+    <workbookView xWindow="16185" yWindow="3465" windowWidth="28800" windowHeight="16245" xr2:uid="{75F97961-46F2-4545-9ED3-F0E6263E2077}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="373">
   <si>
     <t>D8</t>
   </si>
@@ -1147,6 +1147,12 @@
   </si>
   <si>
     <t>expectancy rating (added for preregistration)</t>
+  </si>
+  <si>
+    <t>accept_binary</t>
+  </si>
+  <si>
+    <t>Were you able to practice acceptance? Yes/No?</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1239,9 +1245,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1257,9 +1260,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1576,27 +1576,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31222A2-51DB-244C-8B3D-C257DC9A15AB}">
-  <dimension ref="A1:N268"/>
+  <dimension ref="A1:M257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="10.8984375" style="3"/>
-    <col min="9" max="9" width="16.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.8984375" style="3"/>
-    <col min="12" max="12" width="10.8984375" style="4"/>
-    <col min="13" max="13" width="76.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="10.875" style="3"/>
+    <col min="9" max="9" width="16.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="3"/>
+    <col min="12" max="12" width="10.875" style="4"/>
+    <col min="13" max="13" width="76.625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.8984375" style="3"/>
+    <col min="15" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1630,18 +1630,18 @@
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>269</v>
       </c>
       <c r="C2" s="2">
@@ -1675,20 +1675,20 @@
         <f t="shared" ref="J2:J65" si="6">MID(L2,7,1)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="7" t="str">
+      <c r="K2" s="6" t="str">
         <f>RIGHT(L2,1)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2">
@@ -1722,20 +1722,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K3" s="7" t="str">
+      <c r="K3" s="6" t="str">
         <f t="shared" ref="K3:K66" si="7">RIGHT(L3,1)</f>
         <v>1</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2">
@@ -1769,20 +1769,20 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K4" s="7" t="str">
+      <c r="K4" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2">
@@ -1816,20 +1816,20 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K5" s="7" t="str">
+      <c r="K5" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>298</v>
       </c>
       <c r="C6" s="2">
@@ -1863,17 +1863,17 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K6" s="7" t="str">
+      <c r="K6" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>292</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1910,17 +1910,16 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K7" s="7" t="str">
+      <c r="K7" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="M7" s="2"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>293</v>
       </c>
@@ -1958,21 +1957,20 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K8" s="7" t="str">
+      <c r="K8" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>300</v>
       </c>
       <c r="C9" s="2">
@@ -2006,21 +2004,20 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K9" s="7" t="str">
+      <c r="K9" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>301</v>
       </c>
       <c r="C10" s="2">
@@ -2054,21 +2051,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K10" s="7" t="str">
+      <c r="K10" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M10" s="2"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>302</v>
       </c>
       <c r="C11" s="2">
@@ -2102,21 +2098,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K11" s="7" t="str">
+      <c r="K11" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M11" s="2"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>303</v>
       </c>
       <c r="C12" s="2">
@@ -2150,21 +2145,20 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K12" s="7" t="str">
+      <c r="K12" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>272</v>
       </c>
       <c r="C13" s="2">
@@ -2198,21 +2192,20 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K13" s="7" t="str">
+      <c r="K13" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>273</v>
       </c>
       <c r="C14" s="2">
@@ -2246,20 +2239,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K14" s="7" t="str">
+      <c r="K14" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>274</v>
       </c>
       <c r="C15" s="2">
@@ -2293,20 +2286,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K15" s="7" t="str">
+      <c r="K15" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="6" t="s">
         <v>26</v>
       </c>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>275</v>
       </c>
       <c r="C16" s="2">
@@ -2340,20 +2333,20 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K16" s="7" t="str">
+      <c r="K16" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="6" t="s">
         <v>27</v>
       </c>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>276</v>
       </c>
       <c r="C17" s="2">
@@ -2387,20 +2380,20 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K17" s="7" t="str">
+      <c r="K17" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>277</v>
       </c>
       <c r="C18" s="2">
@@ -2434,20 +2427,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K18" s="7" t="str">
+      <c r="K18" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="6" t="s">
         <v>29</v>
       </c>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>278</v>
       </c>
       <c r="C19" s="2">
@@ -2481,20 +2474,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K19" s="7" t="str">
+      <c r="K19" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="6" t="s">
         <v>30</v>
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>279</v>
       </c>
       <c r="C20" s="2">
@@ -2528,20 +2521,20 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K20" s="7" t="str">
+      <c r="K20" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="6" t="s">
         <v>31</v>
       </c>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>312</v>
       </c>
       <c r="C21" s="2">
@@ -2575,20 +2568,20 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K21" s="7" t="str">
+      <c r="K21" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="6" t="s">
         <v>32</v>
       </c>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>332</v>
       </c>
       <c r="C22" s="2">
@@ -2622,20 +2615,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K22" s="7" t="str">
+      <c r="K22" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="6" t="s">
         <v>33</v>
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>333</v>
       </c>
       <c r="C23" s="2">
@@ -2669,20 +2662,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K23" s="7" t="str">
+      <c r="K23" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="6" t="s">
         <v>34</v>
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>334</v>
       </c>
       <c r="C24" s="2">
@@ -2716,20 +2709,20 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K24" s="7" t="str">
+      <c r="K24" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="6" t="s">
         <v>35</v>
       </c>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>335</v>
       </c>
       <c r="C25" s="2">
@@ -2763,20 +2756,20 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K25" s="7" t="str">
+      <c r="K25" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L25" s="6" t="s">
         <v>36</v>
       </c>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>336</v>
       </c>
       <c r="C26" s="2">
@@ -2810,20 +2803,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K26" s="7" t="str">
+      <c r="K26" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="L26" s="6" t="s">
         <v>37</v>
       </c>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>337</v>
       </c>
       <c r="C27" s="2">
@@ -2857,20 +2850,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K27" s="7" t="str">
+      <c r="K27" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="L27" s="6" t="s">
         <v>38</v>
       </c>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>338</v>
       </c>
       <c r="C28" s="2">
@@ -2904,20 +2897,20 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K28" s="7" t="str">
+      <c r="K28" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="L28" s="6" t="s">
         <v>39</v>
       </c>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>339</v>
       </c>
       <c r="C29" s="2">
@@ -2951,20 +2944,20 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K29" s="7" t="str">
+      <c r="K29" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="6" t="s">
         <v>40</v>
       </c>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>340</v>
       </c>
       <c r="C30" s="2">
@@ -2998,20 +2991,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K30" s="7" t="str">
+      <c r="K30" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="L30" s="6" t="s">
         <v>41</v>
       </c>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>341</v>
       </c>
       <c r="C31" s="2">
@@ -3045,20 +3038,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K31" s="7" t="str">
+      <c r="K31" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="L31" s="6" t="s">
         <v>42</v>
       </c>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>342</v>
       </c>
       <c r="C32" s="2">
@@ -3092,20 +3085,20 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K32" s="7" t="str">
+      <c r="K32" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="6" t="s">
         <v>43</v>
       </c>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>343</v>
       </c>
       <c r="C33" s="2">
@@ -3139,20 +3132,20 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K33" s="7" t="str">
+      <c r="K33" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L33" s="7" t="s">
+      <c r="L33" s="6" t="s">
         <v>44</v>
       </c>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>344</v>
       </c>
       <c r="C34" s="2">
@@ -3186,20 +3179,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K34" s="7" t="str">
+      <c r="K34" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>345</v>
       </c>
       <c r="C35" s="2">
@@ -3233,20 +3226,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K35" s="7" t="str">
+      <c r="K35" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="L35" s="6" t="s">
         <v>46</v>
       </c>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>346</v>
       </c>
       <c r="C36" s="2">
@@ -3280,20 +3273,20 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K36" s="7" t="str">
+      <c r="K36" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="L36" s="6" t="s">
         <v>47</v>
       </c>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>347</v>
       </c>
       <c r="C37" s="2">
@@ -3327,20 +3320,20 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K37" s="7" t="str">
+      <c r="K37" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="L37" s="6" t="s">
         <v>48</v>
       </c>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>348</v>
       </c>
       <c r="C38" s="2">
@@ -3374,20 +3367,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K38" s="7" t="str">
+      <c r="K38" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="L38" s="6" t="s">
         <v>49</v>
       </c>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>349</v>
       </c>
       <c r="C39" s="2">
@@ -3421,20 +3414,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K39" s="7" t="str">
+      <c r="K39" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L39" s="7" t="s">
+      <c r="L39" s="6" t="s">
         <v>50</v>
       </c>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>350</v>
       </c>
       <c r="C40" s="2">
@@ -3468,20 +3461,20 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K40" s="7" t="str">
+      <c r="K40" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="L40" s="6" t="s">
         <v>51</v>
       </c>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>352</v>
       </c>
       <c r="C41" s="2">
@@ -3515,20 +3508,20 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K41" s="7" t="str">
+      <c r="K41" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="L41" s="6" t="s">
         <v>52</v>
       </c>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>354</v>
       </c>
       <c r="C42" s="2">
@@ -3562,20 +3555,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K42" s="7" t="str">
+      <c r="K42" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="L42" s="6" t="s">
         <v>53</v>
       </c>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>356</v>
       </c>
       <c r="C43" s="2">
@@ -3609,20 +3602,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K43" s="7" t="str">
+      <c r="K43" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="L43" s="6" t="s">
         <v>54</v>
       </c>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>359</v>
       </c>
       <c r="C44" s="2">
@@ -3656,20 +3649,20 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K44" s="7" t="str">
+      <c r="K44" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L44" s="7" t="s">
+      <c r="L44" s="6" t="s">
         <v>55</v>
       </c>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>360</v>
       </c>
       <c r="C45" s="2">
@@ -3703,20 +3696,20 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K45" s="7" t="str">
+      <c r="K45" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L45" s="7" t="s">
+      <c r="L45" s="6" t="s">
         <v>56</v>
       </c>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>362</v>
       </c>
       <c r="C46" s="2">
@@ -3750,20 +3743,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K46" s="7" t="str">
+      <c r="K46" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L46" s="7" t="s">
+      <c r="L46" s="6" t="s">
         <v>57</v>
       </c>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>363</v>
       </c>
       <c r="C47" s="2">
@@ -3797,20 +3790,20 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K47" s="7" t="str">
+      <c r="K47" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L47" s="7" t="s">
+      <c r="L47" s="6" t="s">
         <v>58</v>
       </c>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>364</v>
       </c>
       <c r="C48" s="2">
@@ -3844,16 +3837,16 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K48" s="7" t="str">
+      <c r="K48" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L48" s="7" t="s">
+      <c r="L48" s="6" t="s">
         <v>59</v>
       </c>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>361</v>
       </c>
@@ -3891,16 +3884,16 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K49" s="7" t="str">
+      <c r="K49" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L49" s="7" t="s">
+      <c r="L49" s="6" t="s">
         <v>60</v>
       </c>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>284</v>
       </c>
@@ -3938,16 +3931,16 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K50" s="7" t="str">
+      <c r="K50" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L50" s="7" t="s">
+      <c r="L50" s="6" t="s">
         <v>61</v>
       </c>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>285</v>
       </c>
@@ -3985,16 +3978,16 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K51" s="7" t="str">
+      <c r="K51" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L51" s="7" t="s">
+      <c r="L51" s="6" t="s">
         <v>62</v>
       </c>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>286</v>
       </c>
@@ -4032,16 +4025,16 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K52" s="7" t="str">
+      <c r="K52" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L52" s="7" t="s">
+      <c r="L52" s="6" t="s">
         <v>63</v>
       </c>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>369</v>
       </c>
@@ -4079,16 +4072,22 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K53" s="7" t="str">
+      <c r="K53" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L53" s="7" t="s">
+      <c r="L53" s="6" t="s">
         <v>64</v>
       </c>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>372</v>
+      </c>
       <c r="C54" s="2">
         <v>52</v>
       </c>
@@ -4120,16 +4119,16 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K54" s="7" t="str">
+      <c r="K54" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L54" s="7" t="s">
+      <c r="L54" s="6" t="s">
         <v>65</v>
       </c>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C55" s="2">
         <v>53</v>
       </c>
@@ -4161,16 +4160,16 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K55" s="7" t="str">
+      <c r="K55" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L55" s="7" t="s">
+      <c r="L55" s="6" t="s">
         <v>66</v>
       </c>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C56" s="2">
         <v>54</v>
       </c>
@@ -4202,16 +4201,16 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K56" s="7" t="str">
+      <c r="K56" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L56" s="7" t="s">
+      <c r="L56" s="6" t="s">
         <v>67</v>
       </c>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C57" s="2">
         <v>55</v>
       </c>
@@ -4243,16 +4242,16 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K57" s="7" t="str">
+      <c r="K57" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L57" s="7" t="s">
+      <c r="L57" s="6" t="s">
         <v>68</v>
       </c>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C58" s="2">
         <v>56</v>
       </c>
@@ -4284,16 +4283,16 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K58" s="7" t="str">
+      <c r="K58" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L58" s="7" t="s">
+      <c r="L58" s="6" t="s">
         <v>69</v>
       </c>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C59" s="2">
         <v>57</v>
       </c>
@@ -4325,16 +4324,16 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K59" s="7" t="str">
+      <c r="K59" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L59" s="7" t="s">
+      <c r="L59" s="6" t="s">
         <v>70</v>
       </c>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C60" s="2">
         <v>58</v>
       </c>
@@ -4366,16 +4365,16 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K60" s="7" t="str">
+      <c r="K60" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L60" s="7" t="s">
+      <c r="L60" s="6" t="s">
         <v>71</v>
       </c>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C61" s="2">
         <v>59</v>
       </c>
@@ -4407,16 +4406,16 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K61" s="7" t="str">
+      <c r="K61" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L61" s="7" t="s">
+      <c r="L61" s="6" t="s">
         <v>72</v>
       </c>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C62" s="2">
         <v>60</v>
       </c>
@@ -4448,16 +4447,16 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K62" s="7" t="str">
+      <c r="K62" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L62" s="7" t="s">
+      <c r="L62" s="6" t="s">
         <v>73</v>
       </c>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C63" s="2">
         <v>61</v>
       </c>
@@ -4489,16 +4488,16 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K63" s="7" t="str">
+      <c r="K63" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L63" s="7" t="s">
+      <c r="L63" s="6" t="s">
         <v>74</v>
       </c>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C64" s="2">
         <v>62</v>
       </c>
@@ -4530,16 +4529,16 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K64" s="7" t="str">
+      <c r="K64" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L64" s="7" t="s">
+      <c r="L64" s="6" t="s">
         <v>75</v>
       </c>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C65" s="2">
         <v>63</v>
       </c>
@@ -4571,16 +4570,16 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K65" s="7" t="str">
+      <c r="K65" s="6" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L65" s="7" t="s">
+      <c r="L65" s="6" t="s">
         <v>76</v>
       </c>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C66" s="2">
         <v>64</v>
       </c>
@@ -4612,16 +4611,16 @@
         <f t="shared" ref="J66:J129" si="14">MID(L66,7,1)</f>
         <v>0</v>
       </c>
-      <c r="K66" s="7" t="str">
+      <c r="K66" s="6" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L66" s="7" t="s">
+      <c r="L66" s="6" t="s">
         <v>77</v>
       </c>
       <c r="M66" s="2"/>
     </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C67" s="2">
         <v>65</v>
       </c>
@@ -4653,16 +4652,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K67" s="7" t="str">
+      <c r="K67" s="6" t="str">
         <f t="shared" ref="K67:K130" si="15">RIGHT(L67,1)</f>
         <v>1</v>
       </c>
-      <c r="L67" s="7" t="s">
+      <c r="L67" s="6" t="s">
         <v>78</v>
       </c>
       <c r="M67" s="2"/>
     </row>
-    <row r="68" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C68" s="2">
         <v>66</v>
       </c>
@@ -4694,16 +4693,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K68" s="7" t="str">
+      <c r="K68" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L68" s="7" t="s">
+      <c r="L68" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M68" s="2"/>
     </row>
-    <row r="69" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C69" s="2">
         <v>67</v>
       </c>
@@ -4735,16 +4734,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K69" s="7" t="str">
+      <c r="K69" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L69" s="7" t="s">
+      <c r="L69" s="6" t="s">
         <v>80</v>
       </c>
       <c r="M69" s="2"/>
     </row>
-    <row r="70" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C70" s="2">
         <v>68</v>
       </c>
@@ -4776,16 +4775,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K70" s="7" t="str">
+      <c r="K70" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L70" s="7" t="s">
+      <c r="L70" s="6" t="s">
         <v>81</v>
       </c>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C71" s="2">
         <v>69</v>
       </c>
@@ -4817,16 +4816,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K71" s="7" t="str">
+      <c r="K71" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L71" s="7" t="s">
+      <c r="L71" s="6" t="s">
         <v>82</v>
       </c>
       <c r="M71" s="2"/>
     </row>
-    <row r="72" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C72" s="2">
         <v>70</v>
       </c>
@@ -4858,16 +4857,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K72" s="7" t="str">
+      <c r="K72" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L72" s="7" t="s">
+      <c r="L72" s="6" t="s">
         <v>83</v>
       </c>
       <c r="M72" s="2"/>
     </row>
-    <row r="73" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C73" s="2">
         <v>71</v>
       </c>
@@ -4899,16 +4898,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K73" s="7" t="str">
+      <c r="K73" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L73" s="7" t="s">
+      <c r="L73" s="6" t="s">
         <v>84</v>
       </c>
       <c r="M73" s="2"/>
     </row>
-    <row r="74" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C74" s="2">
         <v>72</v>
       </c>
@@ -4940,16 +4939,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K74" s="7" t="str">
+      <c r="K74" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L74" s="7" t="s">
+      <c r="L74" s="6" t="s">
         <v>85</v>
       </c>
       <c r="M74" s="2"/>
     </row>
-    <row r="75" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C75" s="2">
         <v>73</v>
       </c>
@@ -4981,16 +4980,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K75" s="7" t="str">
+      <c r="K75" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L75" s="7" t="s">
+      <c r="L75" s="6" t="s">
         <v>86</v>
       </c>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C76" s="2">
         <v>74</v>
       </c>
@@ -5022,16 +5021,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K76" s="7" t="str">
+      <c r="K76" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L76" s="7" t="s">
+      <c r="L76" s="6" t="s">
         <v>87</v>
       </c>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C77" s="2">
         <v>75</v>
       </c>
@@ -5063,16 +5062,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K77" s="7" t="str">
+      <c r="K77" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L77" s="7" t="s">
+      <c r="L77" s="6" t="s">
         <v>88</v>
       </c>
       <c r="M77" s="2"/>
     </row>
-    <row r="78" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C78" s="2">
         <v>76</v>
       </c>
@@ -5104,16 +5103,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K78" s="7" t="str">
+      <c r="K78" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L78" s="7" t="s">
+      <c r="L78" s="6" t="s">
         <v>89</v>
       </c>
       <c r="M78" s="2"/>
     </row>
-    <row r="79" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C79" s="2">
         <v>77</v>
       </c>
@@ -5145,16 +5144,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K79" s="7" t="str">
+      <c r="K79" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L79" s="7" t="s">
+      <c r="L79" s="6" t="s">
         <v>90</v>
       </c>
       <c r="M79" s="2"/>
     </row>
-    <row r="80" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C80" s="2">
         <v>78</v>
       </c>
@@ -5186,16 +5185,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K80" s="7" t="str">
+      <c r="K80" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L80" s="7" t="s">
+      <c r="L80" s="6" t="s">
         <v>91</v>
       </c>
       <c r="M80" s="2"/>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C81" s="2">
         <v>79</v>
       </c>
@@ -5227,16 +5226,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K81" s="7" t="str">
+      <c r="K81" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L81" s="7" t="s">
+      <c r="L81" s="6" t="s">
         <v>92</v>
       </c>
       <c r="M81" s="2"/>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C82" s="2">
         <v>80</v>
       </c>
@@ -5268,16 +5267,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K82" s="7" t="str">
+      <c r="K82" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L82" s="7" t="s">
+      <c r="L82" s="6" t="s">
         <v>93</v>
       </c>
       <c r="M82" s="2"/>
     </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C83" s="2">
         <v>81</v>
       </c>
@@ -5309,16 +5308,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K83" s="7" t="str">
+      <c r="K83" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L83" s="7" t="s">
+      <c r="L83" s="6" t="s">
         <v>94</v>
       </c>
       <c r="M83" s="2"/>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C84" s="2">
         <v>82</v>
       </c>
@@ -5350,16 +5349,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K84" s="7" t="str">
+      <c r="K84" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L84" s="7" t="s">
+      <c r="L84" s="6" t="s">
         <v>95</v>
       </c>
       <c r="M84" s="2"/>
     </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C85" s="2">
         <v>83</v>
       </c>
@@ -5391,16 +5390,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K85" s="7" t="str">
+      <c r="K85" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L85" s="7" t="s">
+      <c r="L85" s="6" t="s">
         <v>96</v>
       </c>
       <c r="M85" s="2"/>
     </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C86" s="2">
         <v>84</v>
       </c>
@@ -5432,16 +5431,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K86" s="7" t="str">
+      <c r="K86" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L86" s="7" t="s">
+      <c r="L86" s="6" t="s">
         <v>97</v>
       </c>
       <c r="M86" s="2"/>
     </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C87" s="2">
         <v>85</v>
       </c>
@@ -5473,16 +5472,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K87" s="7" t="str">
+      <c r="K87" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L87" s="7" t="s">
+      <c r="L87" s="6" t="s">
         <v>98</v>
       </c>
       <c r="M87" s="2"/>
     </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C88" s="2">
         <v>86</v>
       </c>
@@ -5514,16 +5513,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K88" s="7" t="str">
+      <c r="K88" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L88" s="7" t="s">
+      <c r="L88" s="6" t="s">
         <v>99</v>
       </c>
       <c r="M88" s="2"/>
     </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C89" s="2">
         <v>87</v>
       </c>
@@ -5555,16 +5554,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K89" s="7" t="str">
+      <c r="K89" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L89" s="7" t="s">
+      <c r="L89" s="6" t="s">
         <v>100</v>
       </c>
       <c r="M89" s="2"/>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C90" s="2">
         <v>88</v>
       </c>
@@ -5596,16 +5595,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K90" s="7" t="str">
+      <c r="K90" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L90" s="7" t="s">
+      <c r="L90" s="6" t="s">
         <v>101</v>
       </c>
       <c r="M90" s="2"/>
     </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C91" s="2">
         <v>89</v>
       </c>
@@ -5637,16 +5636,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K91" s="7" t="str">
+      <c r="K91" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L91" s="7" t="s">
+      <c r="L91" s="6" t="s">
         <v>102</v>
       </c>
       <c r="M91" s="2"/>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C92" s="2">
         <v>90</v>
       </c>
@@ -5678,16 +5677,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K92" s="7" t="str">
+      <c r="K92" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L92" s="7" t="s">
+      <c r="L92" s="6" t="s">
         <v>103</v>
       </c>
       <c r="M92" s="2"/>
     </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C93" s="2">
         <v>91</v>
       </c>
@@ -5719,16 +5718,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K93" s="7" t="str">
+      <c r="K93" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L93" s="7" t="s">
+      <c r="L93" s="6" t="s">
         <v>104</v>
       </c>
       <c r="M93" s="2"/>
     </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C94" s="2">
         <v>92</v>
       </c>
@@ -5760,16 +5759,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K94" s="7" t="str">
+      <c r="K94" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L94" s="7" t="s">
+      <c r="L94" s="6" t="s">
         <v>105</v>
       </c>
       <c r="M94" s="2"/>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C95" s="2">
         <v>93</v>
       </c>
@@ -5801,16 +5800,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K95" s="7" t="str">
+      <c r="K95" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L95" s="7" t="s">
+      <c r="L95" s="6" t="s">
         <v>106</v>
       </c>
       <c r="M95" s="2"/>
     </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C96" s="2">
         <v>94</v>
       </c>
@@ -5842,16 +5841,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K96" s="7" t="str">
+      <c r="K96" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L96" s="7" t="s">
+      <c r="L96" s="6" t="s">
         <v>107</v>
       </c>
       <c r="M96" s="2"/>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C97" s="2">
         <v>95</v>
       </c>
@@ -5883,16 +5882,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K97" s="7" t="str">
+      <c r="K97" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L97" s="7" t="s">
+      <c r="L97" s="6" t="s">
         <v>108</v>
       </c>
       <c r="M97" s="2"/>
     </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C98" s="2">
         <v>96</v>
       </c>
@@ -5924,16 +5923,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K98" s="7" t="str">
+      <c r="K98" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L98" s="7" t="s">
+      <c r="L98" s="6" t="s">
         <v>109</v>
       </c>
       <c r="M98" s="2"/>
     </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C99" s="2">
         <v>97</v>
       </c>
@@ -5965,16 +5964,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K99" s="7" t="str">
+      <c r="K99" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L99" s="7" t="s">
+      <c r="L99" s="6" t="s">
         <v>110</v>
       </c>
       <c r="M99" s="2"/>
     </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C100" s="2">
         <v>98</v>
       </c>
@@ -6006,16 +6005,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K100" s="7" t="str">
+      <c r="K100" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L100" s="7" t="s">
+      <c r="L100" s="6" t="s">
         <v>111</v>
       </c>
       <c r="M100" s="2"/>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C101" s="2">
         <v>99</v>
       </c>
@@ -6047,16 +6046,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K101" s="7" t="str">
+      <c r="K101" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L101" s="7" t="s">
+      <c r="L101" s="6" t="s">
         <v>112</v>
       </c>
       <c r="M101" s="2"/>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C102" s="2">
         <v>100</v>
       </c>
@@ -6088,16 +6087,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K102" s="7" t="str">
+      <c r="K102" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L102" s="7" t="s">
+      <c r="L102" s="6" t="s">
         <v>113</v>
       </c>
       <c r="M102" s="2"/>
     </row>
-    <row r="103" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C103" s="2">
         <v>101</v>
       </c>
@@ -6129,16 +6128,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K103" s="7" t="str">
+      <c r="K103" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L103" s="7" t="s">
+      <c r="L103" s="6" t="s">
         <v>114</v>
       </c>
       <c r="M103" s="2"/>
     </row>
-    <row r="104" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C104" s="2">
         <v>102</v>
       </c>
@@ -6170,16 +6169,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K104" s="7" t="str">
+      <c r="K104" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L104" s="7" t="s">
+      <c r="L104" s="6" t="s">
         <v>115</v>
       </c>
       <c r="M104" s="2"/>
     </row>
-    <row r="105" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C105" s="2">
         <v>103</v>
       </c>
@@ -6211,15 +6210,15 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K105" s="7" t="str">
+      <c r="K105" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L105" s="7" t="s">
+      <c r="L105" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="106" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C106" s="2">
         <v>104</v>
       </c>
@@ -6251,16 +6250,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K106" s="7" t="str">
+      <c r="K106" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L106" s="7" t="s">
+      <c r="L106" s="6" t="s">
         <v>117</v>
       </c>
       <c r="M106" s="2"/>
     </row>
-    <row r="107" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C107" s="2">
         <v>105</v>
       </c>
@@ -6292,16 +6291,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K107" s="7" t="str">
+      <c r="K107" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L107" s="7" t="s">
+      <c r="L107" s="6" t="s">
         <v>118</v>
       </c>
       <c r="M107" s="2"/>
     </row>
-    <row r="108" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C108" s="2">
         <v>106</v>
       </c>
@@ -6333,16 +6332,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K108" s="7" t="str">
+      <c r="K108" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L108" s="7" t="s">
+      <c r="L108" s="6" t="s">
         <v>119</v>
       </c>
       <c r="M108" s="2"/>
     </row>
-    <row r="109" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C109" s="2">
         <v>107</v>
       </c>
@@ -6374,16 +6373,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K109" s="7" t="str">
+      <c r="K109" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L109" s="7" t="s">
+      <c r="L109" s="6" t="s">
         <v>120</v>
       </c>
       <c r="M109" s="2"/>
     </row>
-    <row r="110" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C110" s="2">
         <v>108</v>
       </c>
@@ -6415,16 +6414,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K110" s="7" t="str">
+      <c r="K110" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L110" s="7" t="s">
+      <c r="L110" s="6" t="s">
         <v>121</v>
       </c>
       <c r="M110" s="2"/>
     </row>
-    <row r="111" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C111" s="2">
         <v>109</v>
       </c>
@@ -6456,16 +6455,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K111" s="7" t="str">
+      <c r="K111" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L111" s="7" t="s">
+      <c r="L111" s="6" t="s">
         <v>122</v>
       </c>
       <c r="M111" s="2"/>
     </row>
-    <row r="112" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C112" s="2">
         <v>110</v>
       </c>
@@ -6497,16 +6496,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K112" s="7" t="str">
+      <c r="K112" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L112" s="7" t="s">
+      <c r="L112" s="6" t="s">
         <v>123</v>
       </c>
       <c r="M112" s="2"/>
     </row>
-    <row r="113" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C113" s="2">
         <v>111</v>
       </c>
@@ -6538,16 +6537,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K113" s="7" t="str">
+      <c r="K113" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L113" s="7" t="s">
+      <c r="L113" s="6" t="s">
         <v>124</v>
       </c>
       <c r="M113" s="2"/>
     </row>
-    <row r="114" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C114" s="2">
         <v>112</v>
       </c>
@@ -6579,16 +6578,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K114" s="7" t="str">
+      <c r="K114" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L114" s="7" t="s">
+      <c r="L114" s="6" t="s">
         <v>125</v>
       </c>
       <c r="M114" s="2"/>
     </row>
-    <row r="115" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C115" s="2">
         <v>113</v>
       </c>
@@ -6620,16 +6619,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K115" s="7" t="str">
+      <c r="K115" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L115" s="7" t="s">
+      <c r="L115" s="6" t="s">
         <v>126</v>
       </c>
       <c r="M115" s="2"/>
     </row>
-    <row r="116" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C116" s="2">
         <v>114</v>
       </c>
@@ -6661,16 +6660,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K116" s="7" t="str">
+      <c r="K116" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L116" s="7" t="s">
+      <c r="L116" s="6" t="s">
         <v>127</v>
       </c>
       <c r="M116" s="2"/>
     </row>
-    <row r="117" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C117" s="2">
         <v>115</v>
       </c>
@@ -6702,16 +6701,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K117" s="7" t="str">
+      <c r="K117" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L117" s="7" t="s">
+      <c r="L117" s="6" t="s">
         <v>128</v>
       </c>
       <c r="M117" s="2"/>
     </row>
-    <row r="118" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C118" s="2">
         <v>116</v>
       </c>
@@ -6743,16 +6742,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K118" s="7" t="str">
+      <c r="K118" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L118" s="7" t="s">
+      <c r="L118" s="6" t="s">
         <v>129</v>
       </c>
       <c r="M118" s="2"/>
     </row>
-    <row r="119" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C119" s="2">
         <v>117</v>
       </c>
@@ -6784,16 +6783,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K119" s="7" t="str">
+      <c r="K119" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L119" s="7" t="s">
+      <c r="L119" s="6" t="s">
         <v>130</v>
       </c>
       <c r="M119" s="2"/>
     </row>
-    <row r="120" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C120" s="2">
         <v>118</v>
       </c>
@@ -6825,16 +6824,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K120" s="7" t="str">
+      <c r="K120" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L120" s="7" t="s">
+      <c r="L120" s="6" t="s">
         <v>131</v>
       </c>
       <c r="M120" s="2"/>
     </row>
-    <row r="121" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C121" s="2">
         <v>119</v>
       </c>
@@ -6866,16 +6865,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K121" s="7" t="str">
+      <c r="K121" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L121" s="7" t="s">
+      <c r="L121" s="6" t="s">
         <v>132</v>
       </c>
       <c r="M121" s="2"/>
     </row>
-    <row r="122" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C122" s="2">
         <v>120</v>
       </c>
@@ -6907,16 +6906,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K122" s="7" t="str">
+      <c r="K122" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L122" s="7" t="s">
+      <c r="L122" s="6" t="s">
         <v>133</v>
       </c>
       <c r="M122" s="2"/>
     </row>
-    <row r="123" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C123" s="2">
         <v>121</v>
       </c>
@@ -6948,16 +6947,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K123" s="7" t="str">
+      <c r="K123" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L123" s="7" t="s">
+      <c r="L123" s="6" t="s">
         <v>134</v>
       </c>
       <c r="M123" s="2"/>
     </row>
-    <row r="124" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C124" s="2">
         <v>122</v>
       </c>
@@ -6989,16 +6988,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K124" s="7" t="str">
+      <c r="K124" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L124" s="7" t="s">
+      <c r="L124" s="6" t="s">
         <v>135</v>
       </c>
       <c r="M124" s="2"/>
     </row>
-    <row r="125" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C125" s="2">
         <v>123</v>
       </c>
@@ -7030,16 +7029,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K125" s="7" t="str">
+      <c r="K125" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L125" s="7" t="s">
+      <c r="L125" s="6" t="s">
         <v>136</v>
       </c>
       <c r="M125" s="2"/>
     </row>
-    <row r="126" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C126" s="2">
         <v>124</v>
       </c>
@@ -7071,16 +7070,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K126" s="7" t="str">
+      <c r="K126" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L126" s="7" t="s">
+      <c r="L126" s="6" t="s">
         <v>137</v>
       </c>
       <c r="M126" s="2"/>
     </row>
-    <row r="127" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C127" s="2">
         <v>125</v>
       </c>
@@ -7112,16 +7111,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K127" s="7" t="str">
+      <c r="K127" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L127" s="7" t="s">
+      <c r="L127" s="6" t="s">
         <v>138</v>
       </c>
       <c r="M127" s="2"/>
     </row>
-    <row r="128" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C128" s="2">
         <v>126</v>
       </c>
@@ -7153,16 +7152,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K128" s="7" t="str">
+      <c r="K128" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L128" s="7" t="s">
+      <c r="L128" s="6" t="s">
         <v>139</v>
       </c>
       <c r="M128" s="2"/>
     </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C129" s="2">
         <v>127</v>
       </c>
@@ -7194,16 +7193,16 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K129" s="7" t="str">
+      <c r="K129" s="6" t="str">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L129" s="7" t="s">
+      <c r="L129" s="6" t="s">
         <v>140</v>
       </c>
       <c r="M129" s="2"/>
     </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C130" s="2">
         <v>128</v>
       </c>
@@ -7235,16 +7234,16 @@
         <f t="shared" ref="J130:J193" si="22">MID(L130,7,1)</f>
         <v>0</v>
       </c>
-      <c r="K130" s="7" t="str">
+      <c r="K130" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L130" s="7" t="s">
+      <c r="L130" s="6" t="s">
         <v>141</v>
       </c>
       <c r="M130" s="2"/>
     </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C131" s="2">
         <v>129</v>
       </c>
@@ -7276,16 +7275,16 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K131" s="7" t="str">
+      <c r="K131" s="6" t="str">
         <f t="shared" ref="K131:K194" si="23">RIGHT(L131,1)</f>
         <v>1</v>
       </c>
-      <c r="L131" s="7" t="s">
+      <c r="L131" s="6" t="s">
         <v>142</v>
       </c>
       <c r="M131" s="2"/>
     </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C132" s="2">
         <v>130</v>
       </c>
@@ -7317,16 +7316,16 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K132" s="7" t="str">
+      <c r="K132" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L132" s="7" t="s">
+      <c r="L132" s="6" t="s">
         <v>143</v>
       </c>
       <c r="M132" s="2"/>
     </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C133" s="2">
         <v>131</v>
       </c>
@@ -7358,16 +7357,16 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K133" s="7" t="str">
+      <c r="K133" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L133" s="7" t="s">
+      <c r="L133" s="6" t="s">
         <v>144</v>
       </c>
       <c r="M133" s="2"/>
     </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C134" s="2">
         <v>132</v>
       </c>
@@ -7399,16 +7398,16 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K134" s="7" t="str">
+      <c r="K134" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L134" s="7" t="s">
+      <c r="L134" s="6" t="s">
         <v>145</v>
       </c>
       <c r="M134" s="2"/>
     </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C135" s="2">
         <v>133</v>
       </c>
@@ -7440,16 +7439,16 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K135" s="7" t="str">
+      <c r="K135" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L135" s="7" t="s">
+      <c r="L135" s="6" t="s">
         <v>146</v>
       </c>
       <c r="M135" s="2"/>
     </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C136" s="2">
         <v>134</v>
       </c>
@@ -7481,16 +7480,16 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K136" s="7" t="str">
+      <c r="K136" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L136" s="7" t="s">
+      <c r="L136" s="6" t="s">
         <v>147</v>
       </c>
       <c r="M136" s="2"/>
     </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C137" s="2">
         <v>135</v>
       </c>
@@ -7522,16 +7521,16 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K137" s="7" t="str">
+      <c r="K137" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L137" s="7" t="s">
+      <c r="L137" s="6" t="s">
         <v>148</v>
       </c>
       <c r="M137" s="2"/>
     </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="C138" s="2">
         <v>136</v>
@@ -7564,16 +7563,16 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K138" s="7" t="str">
+      <c r="K138" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L138" s="7" t="s">
+      <c r="L138" s="6" t="s">
         <v>149</v>
       </c>
       <c r="M138" s="2"/>
     </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="C139" s="2">
         <v>137</v>
@@ -7606,16 +7605,16 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K139" s="7" t="str">
+      <c r="K139" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L139" s="7" t="s">
+      <c r="L139" s="6" t="s">
         <v>150</v>
       </c>
       <c r="M139" s="2"/>
     </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="2">
         <v>138</v>
@@ -7648,16 +7647,16 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K140" s="7" t="str">
+      <c r="K140" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L140" s="7" t="s">
+      <c r="L140" s="6" t="s">
         <v>151</v>
       </c>
       <c r="M140" s="2"/>
     </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="2">
         <v>139</v>
@@ -7690,16 +7689,16 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K141" s="7" t="str">
+      <c r="K141" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L141" s="7" t="s">
+      <c r="L141" s="6" t="s">
         <v>152</v>
       </c>
       <c r="M141" s="2"/>
     </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="C142" s="2">
         <v>140</v>
@@ -7732,16 +7731,16 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K142" s="7" t="str">
+      <c r="K142" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L142" s="7" t="s">
+      <c r="L142" s="6" t="s">
         <v>153</v>
       </c>
       <c r="M142" s="2"/>
     </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="C143" s="2">
         <v>141</v>
@@ -7774,16 +7773,16 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K143" s="7" t="str">
+      <c r="K143" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L143" s="7" t="s">
+      <c r="L143" s="6" t="s">
         <v>154</v>
       </c>
       <c r="M143" s="2"/>
     </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
       <c r="C144" s="2">
         <v>142</v>
@@ -7816,16 +7815,16 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K144" s="7" t="str">
+      <c r="K144" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L144" s="7" t="s">
+      <c r="L144" s="6" t="s">
         <v>155</v>
       </c>
       <c r="M144" s="2"/>
     </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B145" s="2"/>
       <c r="C145" s="2">
         <v>143</v>
@@ -7858,16 +7857,16 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K145" s="7" t="str">
+      <c r="K145" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L145" s="7" t="s">
+      <c r="L145" s="6" t="s">
         <v>156</v>
       </c>
       <c r="M145" s="2"/>
     </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B146" s="2"/>
       <c r="C146" s="2">
         <v>144</v>
@@ -7900,16 +7899,16 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K146" s="7" t="str">
+      <c r="K146" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L146" s="7" t="s">
+      <c r="L146" s="6" t="s">
         <v>157</v>
       </c>
       <c r="M146" s="2"/>
     </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" s="2"/>
       <c r="C147" s="2">
         <v>145</v>
@@ -7942,16 +7941,16 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K147" s="7" t="str">
+      <c r="K147" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L147" s="7" t="s">
+      <c r="L147" s="6" t="s">
         <v>158</v>
       </c>
       <c r="M147" s="2"/>
     </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
       <c r="C148" s="2">
         <v>146</v>
@@ -7984,16 +7983,16 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K148" s="7" t="str">
+      <c r="K148" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L148" s="7" t="s">
+      <c r="L148" s="6" t="s">
         <v>159</v>
       </c>
       <c r="M148" s="2"/>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="C149" s="2">
         <v>147</v>
@@ -8026,16 +8025,16 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K149" s="7" t="str">
+      <c r="K149" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L149" s="7" t="s">
+      <c r="L149" s="6" t="s">
         <v>160</v>
       </c>
       <c r="M149" s="2"/>
     </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
       <c r="C150" s="2">
         <v>148</v>
@@ -8068,16 +8067,16 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K150" s="7" t="str">
+      <c r="K150" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L150" s="7" t="s">
+      <c r="L150" s="6" t="s">
         <v>161</v>
       </c>
       <c r="M150" s="2"/>
     </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
       <c r="C151" s="2">
         <v>149</v>
@@ -8110,16 +8109,16 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K151" s="7" t="str">
+      <c r="K151" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L151" s="7" t="s">
+      <c r="L151" s="6" t="s">
         <v>162</v>
       </c>
       <c r="M151" s="2"/>
     </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C152" s="2">
         <v>150</v>
       </c>
@@ -8151,16 +8150,16 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K152" s="7" t="str">
+      <c r="K152" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L152" s="7" t="s">
+      <c r="L152" s="6" t="s">
         <v>163</v>
       </c>
       <c r="M152" s="2"/>
     </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C153" s="2">
         <v>151</v>
       </c>
@@ -8192,16 +8191,16 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K153" s="7" t="str">
+      <c r="K153" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L153" s="7" t="s">
+      <c r="L153" s="6" t="s">
         <v>164</v>
       </c>
       <c r="M153" s="2"/>
     </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C154" s="2">
         <v>152</v>
       </c>
@@ -8233,16 +8232,16 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K154" s="7" t="str">
+      <c r="K154" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L154" s="7" t="s">
+      <c r="L154" s="6" t="s">
         <v>165</v>
       </c>
       <c r="M154" s="2"/>
     </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C155" s="2">
         <v>153</v>
       </c>
@@ -8274,16 +8273,16 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K155" s="7" t="str">
+      <c r="K155" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L155" s="7" t="s">
+      <c r="L155" s="6" t="s">
         <v>166</v>
       </c>
       <c r="M155" s="2"/>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C156" s="2">
         <v>154</v>
       </c>
@@ -8315,16 +8314,16 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K156" s="7" t="str">
+      <c r="K156" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L156" s="7" t="s">
+      <c r="L156" s="6" t="s">
         <v>167</v>
       </c>
       <c r="M156" s="2"/>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C157" s="2">
         <v>155</v>
       </c>
@@ -8356,16 +8355,16 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K157" s="7" t="str">
+      <c r="K157" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L157" s="7" t="s">
+      <c r="L157" s="6" t="s">
         <v>168</v>
       </c>
       <c r="M157" s="2"/>
     </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C158" s="2">
         <v>156</v>
       </c>
@@ -8397,16 +8396,16 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K158" s="7" t="str">
+      <c r="K158" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L158" s="7" t="s">
+      <c r="L158" s="6" t="s">
         <v>169</v>
       </c>
       <c r="M158" s="2"/>
     </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C159" s="2">
         <v>157</v>
       </c>
@@ -8438,16 +8437,16 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K159" s="7" t="str">
+      <c r="K159" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L159" s="7" t="s">
+      <c r="L159" s="6" t="s">
         <v>170</v>
       </c>
       <c r="M159" s="2"/>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C160" s="2">
         <v>158</v>
       </c>
@@ -8479,16 +8478,16 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K160" s="7" t="str">
+      <c r="K160" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L160" s="7" t="s">
+      <c r="L160" s="6" t="s">
         <v>171</v>
       </c>
       <c r="M160" s="2"/>
     </row>
-    <row r="161" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C161" s="2">
         <v>159</v>
       </c>
@@ -8520,16 +8519,16 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K161" s="7" t="str">
+      <c r="K161" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L161" s="7" t="s">
+      <c r="L161" s="6" t="s">
         <v>172</v>
       </c>
       <c r="M161" s="2"/>
     </row>
-    <row r="162" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C162" s="2">
         <v>160</v>
       </c>
@@ -8561,16 +8560,16 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K162" s="7" t="str">
+      <c r="K162" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L162" s="7" t="s">
+      <c r="L162" s="6" t="s">
         <v>173</v>
       </c>
       <c r="M162" s="2"/>
     </row>
-    <row r="163" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C163" s="2">
         <v>161</v>
       </c>
@@ -8602,16 +8601,16 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K163" s="7" t="str">
+      <c r="K163" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L163" s="7" t="s">
+      <c r="L163" s="6" t="s">
         <v>174</v>
       </c>
       <c r="M163" s="2"/>
     </row>
-    <row r="164" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C164" s="2">
         <v>162</v>
       </c>
@@ -8643,16 +8642,16 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K164" s="7" t="str">
+      <c r="K164" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L164" s="7" t="s">
+      <c r="L164" s="6" t="s">
         <v>175</v>
       </c>
       <c r="M164" s="2"/>
     </row>
-    <row r="165" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C165" s="2">
         <v>163</v>
       </c>
@@ -8684,16 +8683,16 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K165" s="7" t="str">
+      <c r="K165" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L165" s="7" t="s">
+      <c r="L165" s="6" t="s">
         <v>176</v>
       </c>
       <c r="M165" s="2"/>
     </row>
-    <row r="166" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C166" s="2">
         <v>164</v>
       </c>
@@ -8725,16 +8724,16 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K166" s="7" t="str">
+      <c r="K166" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L166" s="7" t="s">
+      <c r="L166" s="6" t="s">
         <v>177</v>
       </c>
       <c r="M166" s="2"/>
     </row>
-    <row r="167" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C167" s="2">
         <v>165</v>
       </c>
@@ -8766,16 +8765,16 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K167" s="7" t="str">
+      <c r="K167" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L167" s="7" t="s">
+      <c r="L167" s="6" t="s">
         <v>178</v>
       </c>
       <c r="M167" s="2"/>
     </row>
-    <row r="168" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C168" s="2">
         <v>166</v>
       </c>
@@ -8807,16 +8806,16 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K168" s="7" t="str">
+      <c r="K168" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L168" s="7" t="s">
+      <c r="L168" s="6" t="s">
         <v>179</v>
       </c>
       <c r="M168" s="2"/>
     </row>
-    <row r="169" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C169" s="2">
         <v>167</v>
       </c>
@@ -8848,16 +8847,16 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K169" s="7" t="str">
+      <c r="K169" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L169" s="7" t="s">
+      <c r="L169" s="6" t="s">
         <v>180</v>
       </c>
       <c r="M169" s="2"/>
     </row>
-    <row r="170" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C170" s="2">
         <v>168</v>
       </c>
@@ -8889,16 +8888,16 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K170" s="7" t="str">
+      <c r="K170" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L170" s="7" t="s">
+      <c r="L170" s="6" t="s">
         <v>181</v>
       </c>
       <c r="M170" s="2"/>
     </row>
-    <row r="171" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C171" s="2">
         <v>169</v>
       </c>
@@ -8930,16 +8929,16 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K171" s="7" t="str">
+      <c r="K171" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L171" s="7" t="s">
+      <c r="L171" s="6" t="s">
         <v>182</v>
       </c>
       <c r="M171" s="2"/>
     </row>
-    <row r="172" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C172" s="2">
         <v>170</v>
       </c>
@@ -8971,16 +8970,16 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K172" s="7" t="str">
+      <c r="K172" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L172" s="7" t="s">
+      <c r="L172" s="6" t="s">
         <v>183</v>
       </c>
       <c r="M172" s="2"/>
     </row>
-    <row r="173" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C173" s="2">
         <v>171</v>
       </c>
@@ -9012,16 +9011,16 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K173" s="7" t="str">
+      <c r="K173" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L173" s="7" t="s">
+      <c r="L173" s="6" t="s">
         <v>184</v>
       </c>
       <c r="M173" s="2"/>
     </row>
-    <row r="174" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C174" s="2">
         <v>172</v>
       </c>
@@ -9053,16 +9052,16 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K174" s="7" t="str">
+      <c r="K174" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L174" s="7" t="s">
+      <c r="L174" s="6" t="s">
         <v>185</v>
       </c>
       <c r="M174" s="2"/>
     </row>
-    <row r="175" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C175" s="2">
         <v>173</v>
       </c>
@@ -9094,16 +9093,16 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K175" s="7" t="str">
+      <c r="K175" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L175" s="7" t="s">
+      <c r="L175" s="6" t="s">
         <v>186</v>
       </c>
       <c r="M175" s="2"/>
     </row>
-    <row r="176" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C176" s="2">
         <v>174</v>
       </c>
@@ -9135,16 +9134,16 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K176" s="7" t="str">
+      <c r="K176" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L176" s="7" t="s">
+      <c r="L176" s="6" t="s">
         <v>187</v>
       </c>
       <c r="M176" s="2"/>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C177" s="2">
         <v>175</v>
       </c>
@@ -9176,17 +9175,17 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K177" s="7" t="str">
+      <c r="K177" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L177" s="7" t="s">
+      <c r="L177" s="6" t="s">
         <v>188</v>
       </c>
       <c r="M177" s="2"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A178" s="8"/>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" s="7"/>
       <c r="C178" s="2">
         <v>176</v>
       </c>
@@ -9218,17 +9217,17 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K178" s="7" t="str">
+      <c r="K178" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L178" s="7" t="s">
+      <c r="L178" s="6" t="s">
         <v>189</v>
       </c>
       <c r="M178" s="2"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A179" s="8"/>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" s="7"/>
       <c r="C179" s="2">
         <v>177</v>
       </c>
@@ -9260,17 +9259,17 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K179" s="7" t="str">
+      <c r="K179" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L179" s="7" t="s">
+      <c r="L179" s="6" t="s">
         <v>190</v>
       </c>
       <c r="M179" s="2"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A180" s="8"/>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180" s="7"/>
       <c r="C180" s="2">
         <v>178</v>
       </c>
@@ -9302,17 +9301,17 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K180" s="7" t="str">
+      <c r="K180" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L180" s="7" t="s">
+      <c r="L180" s="6" t="s">
         <v>191</v>
       </c>
       <c r="M180" s="2"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A181" s="8"/>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181" s="7"/>
       <c r="C181" s="2">
         <v>179</v>
       </c>
@@ -9344,17 +9343,17 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K181" s="7" t="str">
+      <c r="K181" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L181" s="7" t="s">
+      <c r="L181" s="6" t="s">
         <v>192</v>
       </c>
       <c r="M181" s="2"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A182" s="8"/>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182" s="7"/>
       <c r="C182" s="2">
         <v>180</v>
       </c>
@@ -9386,17 +9385,17 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K182" s="7" t="str">
+      <c r="K182" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L182" s="7" t="s">
+      <c r="L182" s="6" t="s">
         <v>193</v>
       </c>
       <c r="M182" s="2"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A183" s="8"/>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183" s="7"/>
       <c r="C183" s="2">
         <v>181</v>
       </c>
@@ -9428,17 +9427,17 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K183" s="7" t="str">
+      <c r="K183" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L183" s="7" t="s">
+      <c r="L183" s="6" t="s">
         <v>194</v>
       </c>
       <c r="M183" s="2"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A184" s="8"/>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A184" s="7"/>
       <c r="C184" s="2">
         <v>182</v>
       </c>
@@ -9470,17 +9469,17 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K184" s="7" t="str">
+      <c r="K184" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L184" s="7" t="s">
+      <c r="L184" s="6" t="s">
         <v>195</v>
       </c>
       <c r="M184" s="2"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A185" s="8"/>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185" s="7"/>
       <c r="C185" s="2">
         <v>183</v>
       </c>
@@ -9512,18 +9511,18 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K185" s="7" t="str">
+      <c r="K185" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L185" s="7" t="s">
+      <c r="L185" s="6" t="s">
         <v>196</v>
       </c>
       <c r="M185" s="2"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A186" s="8"/>
-      <c r="B186" s="10"/>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186" s="7"/>
+      <c r="B186" s="9"/>
       <c r="C186" s="2">
         <v>184</v>
       </c>
@@ -9555,18 +9554,18 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K186" s="7" t="str">
+      <c r="K186" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L186" s="7" t="s">
+      <c r="L186" s="6" t="s">
         <v>197</v>
       </c>
       <c r="M186" s="2"/>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A187" s="8"/>
-      <c r="B187" s="10"/>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A187" s="7"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="2">
         <v>185</v>
       </c>
@@ -9598,18 +9597,18 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K187" s="7" t="str">
+      <c r="K187" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L187" s="7" t="s">
+      <c r="L187" s="6" t="s">
         <v>198</v>
       </c>
       <c r="M187" s="2"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A188" s="8"/>
-      <c r="B188" s="10"/>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A188" s="7"/>
+      <c r="B188" s="9"/>
       <c r="C188" s="2">
         <v>186</v>
       </c>
@@ -9641,18 +9640,18 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K188" s="7" t="str">
+      <c r="K188" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L188" s="7" t="s">
+      <c r="L188" s="6" t="s">
         <v>199</v>
       </c>
       <c r="M188" s="2"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A189" s="8"/>
-      <c r="B189" s="10"/>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A189" s="7"/>
+      <c r="B189" s="9"/>
       <c r="C189" s="2">
         <v>187</v>
       </c>
@@ -9684,18 +9683,18 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K189" s="7" t="str">
+      <c r="K189" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L189" s="7" t="s">
+      <c r="L189" s="6" t="s">
         <v>200</v>
       </c>
       <c r="M189" s="2"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A190" s="8"/>
-      <c r="B190" s="8"/>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A190" s="7"/>
+      <c r="B190" s="7"/>
       <c r="C190" s="2">
         <v>188</v>
       </c>
@@ -9727,18 +9726,18 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K190" s="7" t="str">
+      <c r="K190" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L190" s="7" t="s">
+      <c r="L190" s="6" t="s">
         <v>201</v>
       </c>
       <c r="M190" s="2"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A191" s="8"/>
-      <c r="B191" s="8"/>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A191" s="7"/>
+      <c r="B191" s="7"/>
       <c r="C191" s="2">
         <v>189</v>
       </c>
@@ -9770,18 +9769,18 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K191" s="7" t="str">
+      <c r="K191" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L191" s="7" t="s">
+      <c r="L191" s="6" t="s">
         <v>202</v>
       </c>
       <c r="M191" s="2"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A192" s="8"/>
-      <c r="B192" s="8"/>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A192" s="7"/>
+      <c r="B192" s="7"/>
       <c r="C192" s="2">
         <v>190</v>
       </c>
@@ -9813,18 +9812,18 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K192" s="7" t="str">
+      <c r="K192" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L192" s="7" t="s">
+      <c r="L192" s="6" t="s">
         <v>203</v>
       </c>
       <c r="M192" s="2"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A193" s="8"/>
-      <c r="B193" s="8"/>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A193" s="7"/>
+      <c r="B193" s="7"/>
       <c r="C193" s="2">
         <v>191</v>
       </c>
@@ -9856,18 +9855,18 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="K193" s="7" t="str">
+      <c r="K193" s="6" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L193" s="7" t="s">
+      <c r="L193" s="6" t="s">
         <v>204</v>
       </c>
       <c r="M193" s="2"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A194" s="8"/>
-      <c r="B194" s="8"/>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A194" s="7"/>
+      <c r="B194" s="7"/>
       <c r="C194" s="2">
         <v>192</v>
       </c>
@@ -9899,16 +9898,16 @@
         <f t="shared" ref="J194:J257" si="30">MID(L194,7,1)</f>
         <v>0</v>
       </c>
-      <c r="K194" s="7" t="str">
+      <c r="K194" s="6" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L194" s="7" t="s">
+      <c r="L194" s="6" t="s">
         <v>205</v>
       </c>
       <c r="M194" s="2"/>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2">
@@ -9942,16 +9941,16 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K195" s="7" t="str">
+      <c r="K195" s="6" t="str">
         <f t="shared" ref="K195:K257" si="31">RIGHT(L195,1)</f>
         <v>1</v>
       </c>
-      <c r="L195" s="7" t="s">
+      <c r="L195" s="6" t="s">
         <v>206</v>
       </c>
       <c r="M195" s="2"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2">
@@ -9985,16 +9984,16 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K196" s="7" t="str">
+      <c r="K196" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L196" s="7" t="s">
+      <c r="L196" s="6" t="s">
         <v>207</v>
       </c>
       <c r="M196" s="2"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2">
@@ -10028,16 +10027,16 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K197" s="7" t="str">
+      <c r="K197" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L197" s="7" t="s">
+      <c r="L197" s="6" t="s">
         <v>208</v>
       </c>
       <c r="M197" s="2"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2">
@@ -10071,16 +10070,16 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K198" s="7" t="str">
+      <c r="K198" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L198" s="7" t="s">
+      <c r="L198" s="6" t="s">
         <v>209</v>
       </c>
       <c r="M198" s="2"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2">
@@ -10114,18 +10113,18 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K199" s="7" t="str">
+      <c r="K199" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L199" s="7" t="s">
+      <c r="L199" s="6" t="s">
         <v>210</v>
       </c>
       <c r="M199" s="2"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A200" s="8"/>
-      <c r="B200" s="8"/>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A200" s="7"/>
+      <c r="B200" s="7"/>
       <c r="C200" s="2">
         <v>198</v>
       </c>
@@ -10157,18 +10156,18 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K200" s="7" t="str">
+      <c r="K200" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L200" s="7" t="s">
+      <c r="L200" s="6" t="s">
         <v>211</v>
       </c>
       <c r="M200" s="2"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A201" s="8"/>
-      <c r="B201" s="8"/>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A201" s="7"/>
+      <c r="B201" s="7"/>
       <c r="C201" s="2">
         <v>199</v>
       </c>
@@ -10200,18 +10199,18 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K201" s="7" t="str">
+      <c r="K201" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L201" s="7" t="s">
+      <c r="L201" s="6" t="s">
         <v>212</v>
       </c>
       <c r="M201" s="2"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A202" s="8"/>
-      <c r="B202" s="8"/>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A202" s="7"/>
+      <c r="B202" s="7"/>
       <c r="C202" s="2">
         <v>200</v>
       </c>
@@ -10243,18 +10242,18 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K202" s="7" t="str">
+      <c r="K202" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L202" s="7" t="s">
+      <c r="L202" s="6" t="s">
         <v>213</v>
       </c>
       <c r="M202" s="2"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A203" s="8"/>
-      <c r="B203" s="8"/>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A203" s="7"/>
+      <c r="B203" s="7"/>
       <c r="C203" s="2">
         <v>201</v>
       </c>
@@ -10286,18 +10285,18 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K203" s="7" t="str">
+      <c r="K203" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L203" s="7" t="s">
+      <c r="L203" s="6" t="s">
         <v>214</v>
       </c>
       <c r="M203" s="2"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A204" s="8"/>
-      <c r="B204" s="8"/>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A204" s="7"/>
+      <c r="B204" s="7"/>
       <c r="C204" s="2">
         <v>202</v>
       </c>
@@ -10329,18 +10328,18 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K204" s="7" t="str">
+      <c r="K204" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L204" s="7" t="s">
+      <c r="L204" s="6" t="s">
         <v>215</v>
       </c>
       <c r="M204" s="2"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A205" s="8"/>
-      <c r="B205" s="8"/>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A205" s="7"/>
+      <c r="B205" s="7"/>
       <c r="C205" s="2">
         <v>203</v>
       </c>
@@ -10372,18 +10371,18 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K205" s="7" t="str">
+      <c r="K205" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L205" s="7" t="s">
+      <c r="L205" s="6" t="s">
         <v>216</v>
       </c>
       <c r="M205" s="2"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A206" s="8"/>
-      <c r="B206" s="8"/>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A206" s="7"/>
+      <c r="B206" s="7"/>
       <c r="C206" s="2">
         <v>204</v>
       </c>
@@ -10415,18 +10414,18 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K206" s="7" t="str">
+      <c r="K206" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L206" s="7" t="s">
+      <c r="L206" s="6" t="s">
         <v>217</v>
       </c>
       <c r="M206" s="2"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A207" s="8"/>
-      <c r="B207" s="8"/>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A207" s="7"/>
+      <c r="B207" s="7"/>
       <c r="C207" s="2">
         <v>205</v>
       </c>
@@ -10458,18 +10457,18 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K207" s="7" t="str">
+      <c r="K207" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L207" s="7" t="s">
+      <c r="L207" s="6" t="s">
         <v>218</v>
       </c>
       <c r="M207" s="2"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A208" s="8"/>
-      <c r="B208" s="8"/>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A208" s="7"/>
+      <c r="B208" s="7"/>
       <c r="C208" s="2">
         <v>206</v>
       </c>
@@ -10501,18 +10500,18 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K208" s="7" t="str">
+      <c r="K208" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L208" s="7" t="s">
+      <c r="L208" s="6" t="s">
         <v>219</v>
       </c>
       <c r="M208" s="2"/>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A209" s="8"/>
-      <c r="B209" s="8"/>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A209" s="7"/>
+      <c r="B209" s="7"/>
       <c r="C209" s="2">
         <v>207</v>
       </c>
@@ -10544,18 +10543,18 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K209" s="7" t="str">
+      <c r="K209" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L209" s="7" t="s">
+      <c r="L209" s="6" t="s">
         <v>220</v>
       </c>
       <c r="M209" s="2"/>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A210" s="8"/>
-      <c r="B210" s="8"/>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A210" s="7"/>
+      <c r="B210" s="7"/>
       <c r="C210" s="2">
         <v>208</v>
       </c>
@@ -10587,18 +10586,18 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K210" s="7" t="str">
+      <c r="K210" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L210" s="7" t="s">
+      <c r="L210" s="6" t="s">
         <v>221</v>
       </c>
       <c r="M210" s="2"/>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A211" s="8"/>
-      <c r="B211" s="8"/>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A211" s="7"/>
+      <c r="B211" s="7"/>
       <c r="C211" s="2">
         <v>209</v>
       </c>
@@ -10630,18 +10629,18 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K211" s="7" t="str">
+      <c r="K211" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L211" s="7" t="s">
+      <c r="L211" s="6" t="s">
         <v>222</v>
       </c>
       <c r="M211" s="2"/>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A212" s="8"/>
-      <c r="B212" s="8"/>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A212" s="7"/>
+      <c r="B212" s="7"/>
       <c r="C212" s="2">
         <v>210</v>
       </c>
@@ -10673,18 +10672,18 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K212" s="7" t="str">
+      <c r="K212" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L212" s="7" t="s">
+      <c r="L212" s="6" t="s">
         <v>223</v>
       </c>
       <c r="M212" s="2"/>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A213" s="8"/>
-      <c r="B213" s="8"/>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A213" s="7"/>
+      <c r="B213" s="7"/>
       <c r="C213" s="2">
         <v>211</v>
       </c>
@@ -10716,17 +10715,17 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K213" s="7" t="str">
+      <c r="K213" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L213" s="7" t="s">
+      <c r="L213" s="6" t="s">
         <v>224</v>
       </c>
       <c r="M213" s="2"/>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A214" s="8"/>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A214" s="7"/>
       <c r="C214" s="2">
         <v>212</v>
       </c>
@@ -10758,18 +10757,18 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K214" s="7" t="str">
+      <c r="K214" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L214" s="7" t="s">
+      <c r="L214" s="6" t="s">
         <v>225</v>
       </c>
       <c r="M214" s="2"/>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A215" s="8"/>
-      <c r="B215" s="8"/>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A215" s="7"/>
+      <c r="B215" s="7"/>
       <c r="C215" s="2">
         <v>213</v>
       </c>
@@ -10801,18 +10800,18 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K215" s="7" t="str">
+      <c r="K215" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L215" s="7" t="s">
+      <c r="L215" s="6" t="s">
         <v>226</v>
       </c>
       <c r="M215" s="2"/>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A216" s="8"/>
-      <c r="B216" s="8"/>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A216" s="7"/>
+      <c r="B216" s="7"/>
       <c r="C216" s="2">
         <v>214</v>
       </c>
@@ -10844,18 +10843,18 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K216" s="7" t="str">
+      <c r="K216" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L216" s="7" t="s">
+      <c r="L216" s="6" t="s">
         <v>227</v>
       </c>
       <c r="M216" s="2"/>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A217" s="8"/>
-      <c r="B217" s="8"/>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A217" s="7"/>
+      <c r="B217" s="7"/>
       <c r="C217" s="2">
         <v>215</v>
       </c>
@@ -10887,18 +10886,18 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K217" s="7" t="str">
+      <c r="K217" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L217" s="7" t="s">
+      <c r="L217" s="6" t="s">
         <v>228</v>
       </c>
       <c r="M217" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2">
@@ -10932,16 +10931,16 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K218" s="7" t="str">
+      <c r="K218" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L218" s="7" t="s">
+      <c r="L218" s="6" t="s">
         <v>229</v>
       </c>
       <c r="M218" s="2"/>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2">
@@ -10975,16 +10974,16 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K219" s="7" t="str">
+      <c r="K219" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L219" s="7" t="s">
+      <c r="L219" s="6" t="s">
         <v>230</v>
       </c>
       <c r="M219" s="2"/>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2">
@@ -11018,16 +11017,16 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K220" s="7" t="str">
+      <c r="K220" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L220" s="7" t="s">
+      <c r="L220" s="6" t="s">
         <v>231</v>
       </c>
       <c r="M220" s="2"/>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2">
@@ -11061,16 +11060,16 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K221" s="7" t="str">
+      <c r="K221" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L221" s="7" t="s">
+      <c r="L221" s="6" t="s">
         <v>232</v>
       </c>
       <c r="M221" s="2"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2">
@@ -11104,16 +11103,16 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K222" s="7" t="str">
+      <c r="K222" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L222" s="7" t="s">
+      <c r="L222" s="6" t="s">
         <v>233</v>
       </c>
       <c r="M222" s="2"/>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2">
@@ -11147,16 +11146,16 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K223" s="7" t="str">
+      <c r="K223" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L223" s="7" t="s">
+      <c r="L223" s="6" t="s">
         <v>234</v>
       </c>
       <c r="M223" s="2"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2">
@@ -11190,16 +11189,16 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K224" s="7" t="str">
+      <c r="K224" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L224" s="7" t="s">
+      <c r="L224" s="6" t="s">
         <v>235</v>
       </c>
       <c r="M224" s="2"/>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2">
@@ -11233,16 +11232,16 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K225" s="7" t="str">
+      <c r="K225" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L225" s="7" t="s">
+      <c r="L225" s="6" t="s">
         <v>236</v>
       </c>
       <c r="M225" s="2"/>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2">
@@ -11276,16 +11275,16 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K226" s="7" t="str">
+      <c r="K226" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L226" s="7" t="s">
+      <c r="L226" s="6" t="s">
         <v>237</v>
       </c>
       <c r="M226" s="2"/>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2">
@@ -11319,16 +11318,16 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K227" s="7" t="str">
+      <c r="K227" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L227" s="7" t="s">
+      <c r="L227" s="6" t="s">
         <v>238</v>
       </c>
       <c r="M227" s="2"/>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2">
@@ -11362,16 +11361,16 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K228" s="7" t="str">
+      <c r="K228" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L228" s="7" t="s">
+      <c r="L228" s="6" t="s">
         <v>239</v>
       </c>
       <c r="M228" s="2"/>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2">
@@ -11405,16 +11404,16 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K229" s="7" t="str">
+      <c r="K229" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L229" s="7" t="s">
+      <c r="L229" s="6" t="s">
         <v>240</v>
       </c>
       <c r="M229" s="2"/>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2">
@@ -11448,16 +11447,16 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K230" s="7" t="str">
+      <c r="K230" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L230" s="7" t="s">
+      <c r="L230" s="6" t="s">
         <v>241</v>
       </c>
       <c r="M230" s="2"/>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2">
@@ -11491,16 +11490,16 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K231" s="7" t="str">
+      <c r="K231" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L231" s="7" t="s">
+      <c r="L231" s="6" t="s">
         <v>242</v>
       </c>
       <c r="M231" s="2"/>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2">
@@ -11534,16 +11533,16 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K232" s="7" t="str">
+      <c r="K232" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L232" s="7" t="s">
+      <c r="L232" s="6" t="s">
         <v>243</v>
       </c>
       <c r="M232" s="2"/>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2">
@@ -11577,16 +11576,16 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K233" s="7" t="str">
+      <c r="K233" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L233" s="7" t="s">
+      <c r="L233" s="6" t="s">
         <v>244</v>
       </c>
       <c r="M233" s="2"/>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2">
@@ -11620,16 +11619,16 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K234" s="7" t="str">
+      <c r="K234" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L234" s="7" t="s">
+      <c r="L234" s="6" t="s">
         <v>245</v>
       </c>
       <c r="M234" s="2"/>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2">
@@ -11663,16 +11662,16 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K235" s="7" t="str">
+      <c r="K235" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L235" s="7" t="s">
+      <c r="L235" s="6" t="s">
         <v>246</v>
       </c>
       <c r="M235" s="2"/>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2">
@@ -11706,16 +11705,16 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K236" s="7" t="str">
+      <c r="K236" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L236" s="7" t="s">
+      <c r="L236" s="6" t="s">
         <v>247</v>
       </c>
       <c r="M236" s="2"/>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2">
@@ -11749,16 +11748,16 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K237" s="7" t="str">
+      <c r="K237" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L237" s="7" t="s">
+      <c r="L237" s="6" t="s">
         <v>248</v>
       </c>
       <c r="M237" s="2"/>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2">
@@ -11792,16 +11791,16 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K238" s="7" t="str">
+      <c r="K238" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L238" s="7" t="s">
+      <c r="L238" s="6" t="s">
         <v>249</v>
       </c>
       <c r="M238" s="2"/>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2">
@@ -11835,16 +11834,16 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K239" s="7" t="str">
+      <c r="K239" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L239" s="7" t="s">
+      <c r="L239" s="6" t="s">
         <v>250</v>
       </c>
       <c r="M239" s="2"/>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2">
@@ -11878,16 +11877,16 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K240" s="7" t="str">
+      <c r="K240" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L240" s="7" t="s">
+      <c r="L240" s="6" t="s">
         <v>251</v>
       </c>
       <c r="M240" s="2"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2">
@@ -11921,16 +11920,16 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K241" s="7" t="str">
+      <c r="K241" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L241" s="7" t="s">
+      <c r="L241" s="6" t="s">
         <v>252</v>
       </c>
       <c r="M241" s="2"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2">
@@ -11964,16 +11963,16 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K242" s="7" t="str">
+      <c r="K242" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L242" s="7" t="s">
+      <c r="L242" s="6" t="s">
         <v>253</v>
       </c>
       <c r="M242" s="2"/>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2">
@@ -12007,16 +12006,16 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K243" s="7" t="str">
+      <c r="K243" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L243" s="7" t="s">
+      <c r="L243" s="6" t="s">
         <v>254</v>
       </c>
       <c r="M243" s="2"/>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2">
@@ -12050,16 +12049,16 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K244" s="7" t="str">
+      <c r="K244" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L244" s="7" t="s">
+      <c r="L244" s="6" t="s">
         <v>255</v>
       </c>
       <c r="M244" s="2"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2">
@@ -12093,16 +12092,16 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K245" s="7" t="str">
+      <c r="K245" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L245" s="7" t="s">
+      <c r="L245" s="6" t="s">
         <v>256</v>
       </c>
       <c r="M245" s="2"/>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2">
@@ -12136,16 +12135,16 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K246" s="7" t="str">
+      <c r="K246" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L246" s="7" t="s">
+      <c r="L246" s="6" t="s">
         <v>257</v>
       </c>
       <c r="M246" s="2"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2">
@@ -12179,16 +12178,16 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K247" s="7" t="str">
+      <c r="K247" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L247" s="7" t="s">
+      <c r="L247" s="6" t="s">
         <v>258</v>
       </c>
       <c r="M247" s="2"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2">
@@ -12222,16 +12221,16 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K248" s="7" t="str">
+      <c r="K248" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L248" s="7" t="s">
+      <c r="L248" s="6" t="s">
         <v>259</v>
       </c>
       <c r="M248" s="2"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2">
@@ -12265,16 +12264,16 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K249" s="7" t="str">
+      <c r="K249" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L249" s="7" t="s">
+      <c r="L249" s="6" t="s">
         <v>260</v>
       </c>
       <c r="M249" s="2"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2">
@@ -12308,16 +12307,16 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K250" s="7" t="str">
+      <c r="K250" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L250" s="7" t="s">
+      <c r="L250" s="6" t="s">
         <v>261</v>
       </c>
       <c r="M250" s="2"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2">
@@ -12351,16 +12350,16 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K251" s="7" t="str">
+      <c r="K251" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L251" s="7" t="s">
+      <c r="L251" s="6" t="s">
         <v>262</v>
       </c>
       <c r="M251" s="2"/>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2">
@@ -12394,16 +12393,16 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K252" s="7" t="str">
+      <c r="K252" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L252" s="7" t="s">
+      <c r="L252" s="6" t="s">
         <v>263</v>
       </c>
       <c r="M252" s="2"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2">
@@ -12437,16 +12436,16 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K253" s="7" t="str">
+      <c r="K253" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L253" s="7" t="s">
+      <c r="L253" s="6" t="s">
         <v>264</v>
       </c>
       <c r="M253" s="2"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2">
@@ -12480,16 +12479,16 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K254" s="7" t="str">
+      <c r="K254" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L254" s="7" t="s">
+      <c r="L254" s="6" t="s">
         <v>265</v>
       </c>
       <c r="M254" s="2"/>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2">
@@ -12523,16 +12522,16 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K255" s="7" t="str">
+      <c r="K255" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L255" s="7" t="s">
+      <c r="L255" s="6" t="s">
         <v>266</v>
       </c>
       <c r="M255" s="2"/>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2">
@@ -12566,16 +12565,16 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K256" s="7" t="str">
+      <c r="K256" s="6" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="L256" s="7" t="s">
+      <c r="L256" s="6" t="s">
         <v>267</v>
       </c>
       <c r="M256" s="2"/>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2">
@@ -12609,49 +12608,14 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="K257" s="7" t="str">
+      <c r="K257" s="6" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L257" s="7" t="s">
+      <c r="L257" s="6" t="s">
         <v>268</v>
       </c>
       <c r="M257" s="2"/>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A258" s="5"/>
-      <c r="B258" s="5"/>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A259" s="5"/>
-      <c r="B259" s="5"/>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B260" s="5"/>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B261" s="5"/>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B262" s="5"/>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B263" s="5"/>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B264" s="5"/>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B265" s="5"/>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B266" s="5"/>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B267" s="5"/>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B268" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
